--- a/portal/repositorio/ABL/MATRIZ_ABL.xlsx
+++ b/portal/repositorio/ABL/MATRIZ_ABL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8222668d6376a54f/Mentecreativa/Power BI/1- CARGA DE CAMPAÑAS/ABL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{4B7AAF41-3FB9-48C5-BCEC-3318C77DD0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69E6B66F-2865-4326-8543-C5C88E693286}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="8_{4B7AAF41-3FB9-48C5-BCEC-3318C77DD0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AF09022-12A9-4B4B-98AF-13DDAA03CFB1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7452C65D-6E1C-43BD-8F12-28ED56C392EB}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="1376">
   <si>
     <t>TRADE</t>
   </si>
@@ -4141,6 +4141,36 @@
   </si>
   <si>
     <t>W02 UNIMARC - PIZARRAS SMU (BASE PORTA PIZARRA)</t>
+  </si>
+  <si>
+    <t>Chocolates</t>
+  </si>
+  <si>
+    <t>Trencito Chocotrío</t>
+  </si>
+  <si>
+    <t>W03 WALMART - TRENCITO CHOCOTRIO (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>Multicategoria</t>
+  </si>
+  <si>
+    <t>W03 JUMBO - CAMPAÑA CORPORATIVA ENERO 2026</t>
+  </si>
+  <si>
+    <t>W03 SISA - CAMPAÑA CORPORATIVA ENERO 2026</t>
+  </si>
+  <si>
+    <t>W03 SMU - CAMPAÑA CORPORATIVA ENERO 2026</t>
+  </si>
+  <si>
+    <t>W03 TOTTUS - CAMPAÑA CORPORATIVA ENERO 2026</t>
+  </si>
+  <si>
+    <t>W03 WALMART - CAMPAÑA CORPORATIVA ENERO 2026</t>
+  </si>
+  <si>
+    <t>CAMPAÑA CORPORATIVA</t>
   </si>
 </sst>
 </file>
@@ -7898,11 +7928,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9999E96D-4CFB-4E05-B33D-24F4D0D91426}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:H1292"/>
+  <dimension ref="A1:H1298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1291" sqref="A1291"/>
+      <pane ySplit="1" topLeftCell="A1287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1298" sqref="C1298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -36003,7 +36033,7 @@
         <v>46048</v>
       </c>
       <c r="G1280" s="8">
-        <f t="shared" ref="G1280:G1292" si="0">WORKDAY.INTL(F1280,10,1,0)+1</f>
+        <f t="shared" ref="G1280:G1298" si="0">WORKDAY.INTL(F1280,10,1,0)+1</f>
         <v>46063</v>
       </c>
       <c r="H1280" s="2" t="s">
@@ -36320,6 +36350,153 @@
       </c>
       <c r="H1292" t="s">
         <v>1365</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8">
+      <c r="A1293" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D1293" s="8">
+        <v>46030</v>
+      </c>
+      <c r="E1293" s="8">
+        <v>46044</v>
+      </c>
+      <c r="F1293" s="8">
+        <v>46063</v>
+      </c>
+      <c r="G1293" s="8">
+        <f t="shared" si="0"/>
+        <v>46078</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8">
+      <c r="A1294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1294" s="8">
+        <v>46049</v>
+      </c>
+      <c r="F1294" s="8">
+        <v>46076</v>
+      </c>
+      <c r="G1294" s="8">
+        <f t="shared" si="0"/>
+        <v>46091</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8">
+      <c r="A1295" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1295" s="8">
+        <v>46049</v>
+      </c>
+      <c r="F1295" s="8">
+        <v>46076</v>
+      </c>
+      <c r="G1295" s="8">
+        <f t="shared" si="0"/>
+        <v>46091</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8">
+      <c r="A1296" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1296" s="8">
+        <v>46042</v>
+      </c>
+      <c r="F1296" s="8">
+        <v>46082</v>
+      </c>
+      <c r="G1296" s="8">
+        <f t="shared" si="0"/>
+        <v>46095</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8">
+      <c r="A1297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1297" s="8">
+        <v>46048</v>
+      </c>
+      <c r="F1297" s="8">
+        <v>46082</v>
+      </c>
+      <c r="G1297" s="8">
+        <f t="shared" si="0"/>
+        <v>46095</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8">
+      <c r="A1298" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1298" s="8">
+        <v>46042</v>
+      </c>
+      <c r="F1298" s="8">
+        <v>46081</v>
+      </c>
+      <c r="G1298" s="8">
+        <f t="shared" si="0"/>
+        <v>46095</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>1374</v>
       </c>
     </row>
   </sheetData>

--- a/portal/repositorio/ABL/MATRIZ_ABL.xlsx
+++ b/portal/repositorio/ABL/MATRIZ_ABL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8222668d6376a54f/Mentecreativa/Power BI/1- CARGA DE CAMPAÑAS/ABL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{4B7AAF41-3FB9-48C5-BCEC-3318C77DD0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AF09022-12A9-4B4B-98AF-13DDAA03CFB1}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="8_{4B7AAF41-3FB9-48C5-BCEC-3318C77DD0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84EA3577-9982-4030-8374-14FE16401A33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7452C65D-6E1C-43BD-8F12-28ED56C392EB}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="1402">
   <si>
     <t>TRADE</t>
   </si>
@@ -4171,6 +4171,84 @@
   </si>
   <si>
     <t>CAMPAÑA CORPORATIVA</t>
+  </si>
+  <si>
+    <t>CONCURSO SAVORY SSRR</t>
+  </si>
+  <si>
+    <t>W04 SSRR - CONCURSO SAVORY (BIG BOY)</t>
+  </si>
+  <si>
+    <t>W04 SSRR - CONCURSO SAVORY (CUPON)</t>
+  </si>
+  <si>
+    <t>W04 SSRR - CONCURSO SAVORY (CUPONERA)</t>
+  </si>
+  <si>
+    <t>W04 SSRR - CONCURSO SAVORY (MARCO PRECIO)</t>
+  </si>
+  <si>
+    <t>W04 SSRR - CONCURSO SAVORY (PREMIO)</t>
+  </si>
+  <si>
+    <t>W04 SSRR - CONCURSO SAVORY (LOMO NAVE)</t>
+  </si>
+  <si>
+    <t>W04 SSRR - CONCURSO SAVORY (VIBRIN CHUPON)</t>
+  </si>
+  <si>
+    <t>DÍA DE LOS ENAMORADOS</t>
+  </si>
+  <si>
+    <t>W04 WALMART - DIA DE LOS ENAMORADOS (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>LLCC</t>
+  </si>
+  <si>
+    <t>CREMA SIN LACTOSA</t>
+  </si>
+  <si>
+    <t>W04 JUMBO - CREMA SIN LACTOSA (STICKER QR)</t>
+  </si>
+  <si>
+    <t>W04 JUMBO - CREMA SIN LACTOSA (STOPPER)</t>
+  </si>
+  <si>
+    <t>W04 SISA - CREMA SIN LACTOSA (LATERAL COLGANTE)</t>
+  </si>
+  <si>
+    <t>W04 SISA - CREMA SIN LACTOSA (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>W04 SISA - CREMA SIN LACTOSA (STICKER QR)</t>
+  </si>
+  <si>
+    <t>W04 SISA - CREMA SIN LACTOSA (STOPPER SISA)</t>
+  </si>
+  <si>
+    <t>CAFÉ</t>
+  </si>
+  <si>
+    <t>LECHE SUR</t>
+  </si>
+  <si>
+    <t>STARBUCKS</t>
+  </si>
+  <si>
+    <t>W04 WALMART - LECHE SUR (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>W04 WALMART - LECHE SUR (QR)</t>
+  </si>
+  <si>
+    <t>W04 WALMART - STARBUCKS  (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>W04 WALMART - STARBUCKS  (QR)</t>
+  </si>
+  <si>
+    <t>W04 SSRR - TRITON LOLLAPALOOZA (PAYLOADER)</t>
   </si>
 </sst>
 </file>
@@ -7928,11 +8006,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9999E96D-4CFB-4E05-B33D-24F4D0D91426}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:H1298"/>
+  <dimension ref="A1:H1317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1298" sqref="C1298"/>
+      <pane ySplit="1" topLeftCell="A1301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1318" sqref="G1318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -36033,7 +36111,7 @@
         <v>46048</v>
       </c>
       <c r="G1280" s="8">
-        <f t="shared" ref="G1280:G1298" si="0">WORKDAY.INTL(F1280,10,1,0)+1</f>
+        <f t="shared" ref="G1280:G1299" si="0">WORKDAY.INTL(F1280,10,1,0)+1</f>
         <v>46063</v>
       </c>
       <c r="H1280" s="2" t="s">
@@ -36497,6 +36575,516 @@
       </c>
       <c r="H1298" t="s">
         <v>1374</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8">
+      <c r="A1299" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1299" s="8">
+        <v>46041</v>
+      </c>
+      <c r="E1299" s="8">
+        <v>46073</v>
+      </c>
+      <c r="F1299" s="8">
+        <v>46081</v>
+      </c>
+      <c r="G1299" s="8">
+        <f t="shared" si="0"/>
+        <v>46095</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8">
+      <c r="A1300" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1300" s="8">
+        <v>46041</v>
+      </c>
+      <c r="E1300" s="8">
+        <v>46073</v>
+      </c>
+      <c r="F1300" s="8">
+        <v>46081</v>
+      </c>
+      <c r="G1300" s="8">
+        <f t="shared" ref="G1300:G1307" si="1">WORKDAY.INTL(F1300,10,1,0)+1</f>
+        <v>46095</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8">
+      <c r="A1301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1301" s="8">
+        <v>46041</v>
+      </c>
+      <c r="E1301" s="8">
+        <v>46073</v>
+      </c>
+      <c r="F1301" s="8">
+        <v>46081</v>
+      </c>
+      <c r="G1301" s="8">
+        <f t="shared" si="1"/>
+        <v>46095</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8">
+      <c r="A1302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1302" s="8">
+        <v>46041</v>
+      </c>
+      <c r="E1302" s="8">
+        <v>46073</v>
+      </c>
+      <c r="F1302" s="8">
+        <v>46081</v>
+      </c>
+      <c r="G1302" s="8">
+        <f t="shared" si="1"/>
+        <v>46095</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8">
+      <c r="A1303" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1303" s="8">
+        <v>46041</v>
+      </c>
+      <c r="E1303" s="8">
+        <v>46073</v>
+      </c>
+      <c r="F1303" s="8">
+        <v>46081</v>
+      </c>
+      <c r="G1303" s="8">
+        <f t="shared" si="1"/>
+        <v>46095</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8">
+      <c r="A1304" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1304" s="8">
+        <v>46041</v>
+      </c>
+      <c r="E1304" s="8">
+        <v>46073</v>
+      </c>
+      <c r="F1304" s="8">
+        <v>46081</v>
+      </c>
+      <c r="G1304" s="8">
+        <f t="shared" si="1"/>
+        <v>46095</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8">
+      <c r="A1305" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1305" s="8">
+        <v>46041</v>
+      </c>
+      <c r="E1305" s="8">
+        <v>46073</v>
+      </c>
+      <c r="F1305" s="8">
+        <v>46081</v>
+      </c>
+      <c r="G1305" s="8">
+        <f t="shared" si="1"/>
+        <v>46095</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8">
+      <c r="A1306" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D1306" s="8">
+        <v>46044</v>
+      </c>
+      <c r="E1306" s="8">
+        <v>46055</v>
+      </c>
+      <c r="F1306" s="8">
+        <v>46067</v>
+      </c>
+      <c r="G1306" s="8">
+        <f t="shared" si="1"/>
+        <v>46081</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8">
+      <c r="A1307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1307" s="8">
+        <v>46049</v>
+      </c>
+      <c r="E1307" s="8">
+        <v>46052</v>
+      </c>
+      <c r="F1307" s="8">
+        <v>46104</v>
+      </c>
+      <c r="G1307" s="8">
+        <f t="shared" si="1"/>
+        <v>46119</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8">
+      <c r="A1308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1308" s="8">
+        <v>46049</v>
+      </c>
+      <c r="E1308" s="8">
+        <v>46052</v>
+      </c>
+      <c r="F1308" s="8">
+        <v>46104</v>
+      </c>
+      <c r="G1308" s="8">
+        <f t="shared" ref="G1308:G1313" si="2">WORKDAY.INTL(F1308,10,1,0)+1</f>
+        <v>46119</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8">
+      <c r="A1309" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1309" s="8">
+        <v>46049</v>
+      </c>
+      <c r="E1309" s="8">
+        <v>46052</v>
+      </c>
+      <c r="F1309" s="8">
+        <v>46104</v>
+      </c>
+      <c r="G1309" s="8">
+        <f t="shared" si="2"/>
+        <v>46119</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8">
+      <c r="A1310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1310" s="8">
+        <v>46049</v>
+      </c>
+      <c r="E1310" s="8">
+        <v>46052</v>
+      </c>
+      <c r="F1310" s="8">
+        <v>46104</v>
+      </c>
+      <c r="G1310" s="8">
+        <f t="shared" si="2"/>
+        <v>46119</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8">
+      <c r="A1311" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1311" s="8">
+        <v>46049</v>
+      </c>
+      <c r="E1311" s="8">
+        <v>46052</v>
+      </c>
+      <c r="F1311" s="8">
+        <v>46104</v>
+      </c>
+      <c r="G1311" s="8">
+        <f t="shared" si="2"/>
+        <v>46119</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8">
+      <c r="A1312" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D1312" s="8">
+        <v>46049</v>
+      </c>
+      <c r="E1312" s="8">
+        <v>46052</v>
+      </c>
+      <c r="F1312" s="8">
+        <v>46104</v>
+      </c>
+      <c r="G1312" s="8">
+        <f t="shared" si="2"/>
+        <v>46119</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8">
+      <c r="A1313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D1313" s="8">
+        <v>46042</v>
+      </c>
+      <c r="E1313" s="8">
+        <v>46059</v>
+      </c>
+      <c r="F1313" s="8">
+        <v>46063</v>
+      </c>
+      <c r="G1313" s="8">
+        <f t="shared" si="2"/>
+        <v>46078</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8">
+      <c r="A1314" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D1314" s="8">
+        <v>46042</v>
+      </c>
+      <c r="E1314" s="8">
+        <v>46059</v>
+      </c>
+      <c r="F1314" s="8">
+        <v>46063</v>
+      </c>
+      <c r="G1314" s="8">
+        <f t="shared" ref="G1314" si="3">WORKDAY.INTL(F1314,10,1,0)+1</f>
+        <v>46078</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8">
+      <c r="A1315" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1315" s="8">
+        <v>46042</v>
+      </c>
+      <c r="E1315" s="8">
+        <v>46059</v>
+      </c>
+      <c r="F1315" s="8">
+        <v>46063</v>
+      </c>
+      <c r="G1315" s="8">
+        <f>WORKDAY.INTL(F1315,10,1,0)+1</f>
+        <v>46078</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8">
+      <c r="A1316" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D1316" s="8">
+        <v>46042</v>
+      </c>
+      <c r="E1316" s="8">
+        <v>46059</v>
+      </c>
+      <c r="F1316" s="8">
+        <v>46063</v>
+      </c>
+      <c r="G1316" s="8">
+        <f>WORKDAY.INTL(F1316,10,1,0)+1</f>
+        <v>46078</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:8">
+      <c r="A1317" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1317" s="8">
+        <v>46027</v>
+      </c>
+      <c r="F1317" s="8">
+        <v>46096</v>
+      </c>
+      <c r="G1317" s="8">
+        <f>WORKDAY.INTL(F1317,10,1,0)+1</f>
+        <v>46109</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>1401</v>
       </c>
     </row>
   </sheetData>

--- a/portal/repositorio/ABL/MATRIZ_ABL.xlsx
+++ b/portal/repositorio/ABL/MATRIZ_ABL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8222668d6376a54f/Mentecreativa/Power BI/1- CARGA DE CAMPAÑAS/ABL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{4B7AAF41-3FB9-48C5-BCEC-3318C77DD0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84EA3577-9982-4030-8374-14FE16401A33}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{3A8FC570-0B2A-4238-83E4-F9F0A98B9035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6439111-765C-435B-953C-AFEAE084E164}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7452C65D-6E1C-43BD-8F12-28ED56C392EB}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4653" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4781" uniqueCount="1444">
   <si>
     <t>TRADE</t>
   </si>
@@ -4249,6 +4249,132 @@
   </si>
   <si>
     <t>W04 SSRR - TRITON LOLLAPALOOZA (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>W04 SSRR - CAMPAÑA CORPORATIVA ENERO 2026</t>
+  </si>
+  <si>
+    <t>PAYLAODERS NATURNES SISA</t>
+  </si>
+  <si>
+    <t>W05 SISA - NATURNES (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>W05 SISA - NATURNES (QR)</t>
+  </si>
+  <si>
+    <t>W06 SSRR - DIA DE LOS ENAMORADOS (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>W06 SISA - DIA DE LOS ENAMORADOS (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>W06 JUMBO - DIA DE LOS ENAMORADOS (ISLA)</t>
+  </si>
+  <si>
+    <t>PAYLOADERS NATURNES TOTTUS</t>
+  </si>
+  <si>
+    <t>W06 TOTTUS - NATURNES (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>BTS TRAFICO WALMART</t>
+  </si>
+  <si>
+    <t>W06 WALMART - BTS (CUBREPALLET)</t>
+  </si>
+  <si>
+    <t>W06 WALMART - NATURNES (PAYLOADER CON GRAFICA)</t>
+  </si>
+  <si>
+    <t>W06 WALMART - NATURNES (PAYLOADER SIN GRAFICA)</t>
+  </si>
+  <si>
+    <t>PAYLAODERS LT 1 E2 WALMART</t>
+  </si>
+  <si>
+    <t>PAYLOADERS SMU NATURNES</t>
+  </si>
+  <si>
+    <t>W07 SMU - NATURNES (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>ACALORADO PERO CON HELADO</t>
+  </si>
+  <si>
+    <t>W07 WALMART - CAMPAÑA DISTRIBUCION HELADOS (VIBRIN CHUPON)</t>
+  </si>
+  <si>
+    <t>W07 WALMART - CAMPAÑA DISTRIBUCION HELADOS (SEPARADOR CHUPON)</t>
+  </si>
+  <si>
+    <t>W07 WALMART - CAMPAÑA DISTRIBUCION HELADOS (LATERAL DERECHO)</t>
+  </si>
+  <si>
+    <t>W07 WALMART - CAMPAÑA DISTRIBUCION HELADOS (LATERAL IZQUIERDO)</t>
+  </si>
+  <si>
+    <t>W07 SMU - CAMPAÑA DISTRIBUCION HELADOS (NAVE FRIO)</t>
+  </si>
+  <si>
+    <t>W07 SMU - CAMPAÑA DISTRIBUCION HELADOS (VIBRIN CHUPON)</t>
+  </si>
+  <si>
+    <t>BTS SMU</t>
+  </si>
+  <si>
+    <t>W07 SMU - BTS (BOTADEROS)</t>
+  </si>
+  <si>
+    <t>W07 SSRR - BTS (BOTADEROS)</t>
+  </si>
+  <si>
+    <t>LT Acuenta Trencito Pascua</t>
+  </si>
+  <si>
+    <t>W07 WALMART - TRENCITO PASCUA (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>Equity Sahne Nuss</t>
+  </si>
+  <si>
+    <t>W07 WALMART - EQUITY SAHNE NUSS (PAYLOADER)</t>
+  </si>
+  <si>
+    <t>PASCUA</t>
+  </si>
+  <si>
+    <t>W07 SMU - ALVI PASCUA (BOTADERO)</t>
+  </si>
+  <si>
+    <t>W07 SMU - ALVI PASCUA (ISLA)</t>
+  </si>
+  <si>
+    <t>W07 SMU - ALVI PASCUA (PEDESTAL)</t>
+  </si>
+  <si>
+    <t>W07 SMU - MAYORISTA 10 PASCUA (BOTADERO)</t>
+  </si>
+  <si>
+    <t>W07 SMU - MAYORISTA 10 PASCUA (PEDESTAL)</t>
+  </si>
+  <si>
+    <t>W07 SMU - SUPER 10 PASCUA (BOTADERO)</t>
+  </si>
+  <si>
+    <t>W07 SMU - SUPER 10 PASCUA (PEDESTAL)</t>
+  </si>
+  <si>
+    <t>W07 SMU - UNIMARC PASCUA (ARCO)</t>
+  </si>
+  <si>
+    <t>W07 SMU - UNIMARC PASCUA (BOTADERO)</t>
+  </si>
+  <si>
+    <t>W07 SMU - UNIMARC PASCUA (ISLA)</t>
+  </si>
+  <si>
+    <t>W07 SMU - UNIMARC PASCUA (PEDESTAL)</t>
   </si>
 </sst>
 </file>
@@ -4410,7 +4536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4474,6 +4600,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8006,11 +8136,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9999E96D-4CFB-4E05-B33D-24F4D0D91426}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:H1317"/>
+  <dimension ref="A1:H1349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1318" sqref="G1318"/>
+      <pane ySplit="1" topLeftCell="A1338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1348" sqref="A1348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37029,7 +37159,7 @@
         <v>46063</v>
       </c>
       <c r="G1315" s="8">
-        <f>WORKDAY.INTL(F1315,10,1,0)+1</f>
+        <f t="shared" ref="G1315:G1329" si="4">WORKDAY.INTL(F1315,10,1,0)+1</f>
         <v>46078</v>
       </c>
       <c r="H1315" t="s">
@@ -37056,7 +37186,7 @@
         <v>46063</v>
       </c>
       <c r="G1316" s="8">
-        <f>WORKDAY.INTL(F1316,10,1,0)+1</f>
+        <f t="shared" si="4"/>
         <v>46078</v>
       </c>
       <c r="H1316" t="s">
@@ -37080,11 +37210,800 @@
         <v>46096</v>
       </c>
       <c r="G1317" s="8">
-        <f>WORKDAY.INTL(F1317,10,1,0)+1</f>
+        <f t="shared" si="4"/>
         <v>46109</v>
       </c>
       <c r="H1317" t="s">
         <v>1401</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8">
+      <c r="A1318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1318" s="8">
+        <v>46048</v>
+      </c>
+      <c r="F1318" s="8">
+        <v>46082</v>
+      </c>
+      <c r="G1318" s="8">
+        <f t="shared" si="4"/>
+        <v>46095</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8">
+      <c r="A1319" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D1319" s="8">
+        <v>46051</v>
+      </c>
+      <c r="E1319" s="8">
+        <v>46056</v>
+      </c>
+      <c r="F1319" s="8">
+        <v>46076</v>
+      </c>
+      <c r="G1319" s="8">
+        <f t="shared" si="4"/>
+        <v>46091</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8">
+      <c r="A1320" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D1320" s="8">
+        <v>46051</v>
+      </c>
+      <c r="E1320" s="8">
+        <v>46056</v>
+      </c>
+      <c r="F1320" s="8">
+        <v>46076</v>
+      </c>
+      <c r="G1320" s="8">
+        <f t="shared" si="4"/>
+        <v>46091</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8">
+      <c r="A1321" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D1321" s="8">
+        <v>46049</v>
+      </c>
+      <c r="F1321" s="8">
+        <v>46070</v>
+      </c>
+      <c r="G1321" s="8">
+        <f t="shared" si="4"/>
+        <v>46085</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8">
+      <c r="A1322" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D1322" s="8">
+        <v>46049</v>
+      </c>
+      <c r="E1322" s="8">
+        <v>46054</v>
+      </c>
+      <c r="F1322" s="8">
+        <v>46068</v>
+      </c>
+      <c r="G1322" s="8">
+        <f t="shared" si="4"/>
+        <v>46081</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8">
+      <c r="A1323" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D1323" s="8">
+        <v>46049</v>
+      </c>
+      <c r="E1323" s="8">
+        <v>46054</v>
+      </c>
+      <c r="F1323" s="8">
+        <v>46068</v>
+      </c>
+      <c r="G1323" s="8">
+        <f t="shared" si="4"/>
+        <v>46081</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8">
+      <c r="A1324" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D1324" s="8">
+        <v>46055</v>
+      </c>
+      <c r="E1324" s="8">
+        <v>46057</v>
+      </c>
+      <c r="F1324" s="8">
+        <v>46076</v>
+      </c>
+      <c r="G1324" s="8">
+        <f t="shared" si="4"/>
+        <v>46091</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8">
+      <c r="A1325" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D1325" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1325" s="8">
+        <v>46106</v>
+      </c>
+      <c r="G1325" s="8">
+        <f t="shared" si="4"/>
+        <v>46121</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8">
+      <c r="A1326" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D1326" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1326" s="8">
+        <v>46106</v>
+      </c>
+      <c r="G1326" s="8">
+        <f t="shared" si="4"/>
+        <v>46121</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8">
+      <c r="A1327" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D1327" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1327" s="8">
+        <v>46106</v>
+      </c>
+      <c r="G1327" s="8">
+        <f t="shared" si="4"/>
+        <v>46121</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8">
+      <c r="A1328" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D1328" s="8">
+        <v>46064</v>
+      </c>
+      <c r="E1328" s="8">
+        <v>46065</v>
+      </c>
+      <c r="F1328" s="8">
+        <v>46126</v>
+      </c>
+      <c r="G1328" s="8">
+        <f t="shared" si="4"/>
+        <v>46141</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8">
+      <c r="A1329" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D1329" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1329" s="8">
+        <v>46106</v>
+      </c>
+      <c r="G1329" s="8">
+        <f t="shared" si="4"/>
+        <v>46121</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8">
+      <c r="A1330" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D1330" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1330" s="8">
+        <v>46106</v>
+      </c>
+      <c r="G1330" s="8">
+        <f t="shared" ref="G1330:G1339" si="5">WORKDAY.INTL(F1330,10,1,0)+1</f>
+        <v>46121</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8">
+      <c r="A1331" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D1331" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1331" s="8">
+        <v>46106</v>
+      </c>
+      <c r="G1331" s="8">
+        <f t="shared" si="5"/>
+        <v>46121</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8">
+      <c r="A1332" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D1332" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1332" s="8">
+        <v>46106</v>
+      </c>
+      <c r="G1332" s="8">
+        <f t="shared" si="5"/>
+        <v>46121</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8">
+      <c r="A1333" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D1333" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1333" s="8">
+        <v>46089</v>
+      </c>
+      <c r="G1333" s="8">
+        <f t="shared" si="5"/>
+        <v>46102</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8">
+      <c r="A1334" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D1334" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1334" s="8">
+        <v>46089</v>
+      </c>
+      <c r="G1334" s="8">
+        <f t="shared" si="5"/>
+        <v>46102</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8">
+      <c r="A1335" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D1335" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1335" s="8">
+        <v>46096</v>
+      </c>
+      <c r="G1335" s="8">
+        <f t="shared" si="5"/>
+        <v>46109</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8">
+      <c r="A1336" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D1336" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1336" s="8">
+        <v>46096</v>
+      </c>
+      <c r="G1336" s="8">
+        <f t="shared" si="5"/>
+        <v>46109</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8">
+      <c r="A1337" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D1337" s="8">
+        <v>46064</v>
+      </c>
+      <c r="E1337" s="23">
+        <v>46066</v>
+      </c>
+      <c r="F1337" s="8">
+        <v>46106</v>
+      </c>
+      <c r="G1337" s="8">
+        <f t="shared" si="5"/>
+        <v>46121</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8">
+      <c r="A1338" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D1338" s="8">
+        <v>46064</v>
+      </c>
+      <c r="F1338" s="8">
+        <v>46106</v>
+      </c>
+      <c r="G1338" s="8">
+        <f t="shared" si="5"/>
+        <v>46121</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8">
+      <c r="A1339" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1339" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1339" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1339" s="8">
+        <f t="shared" si="5"/>
+        <v>46130</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8">
+      <c r="A1340" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1340" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1340" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1340" s="8">
+        <f t="shared" ref="G1340:G1349" si="6">WORKDAY.INTL(F1340,10,1,0)+1</f>
+        <v>46130</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8">
+      <c r="A1341" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1341" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1341" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1341" s="8">
+        <f t="shared" si="6"/>
+        <v>46130</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8">
+      <c r="A1342" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1342" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1342" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1342" s="8">
+        <f t="shared" si="6"/>
+        <v>46130</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8">
+      <c r="A1343" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1343" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1343" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1343" s="8">
+        <f t="shared" si="6"/>
+        <v>46130</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8">
+      <c r="A1344" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1344" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1344" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1344" s="8">
+        <f t="shared" si="6"/>
+        <v>46130</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8">
+      <c r="A1345" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1345" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1345" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1345" s="8">
+        <f t="shared" si="6"/>
+        <v>46130</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8">
+      <c r="A1346" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1346" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1346" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1346" s="8">
+        <f t="shared" si="6"/>
+        <v>46130</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8">
+      <c r="A1347" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1347" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1347" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1347" s="8">
+        <f t="shared" si="6"/>
+        <v>46130</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8">
+      <c r="A1348" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1348" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1348" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1348" s="8">
+        <f t="shared" si="6"/>
+        <v>46130</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8">
+      <c r="A1349" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D1349" s="8">
+        <v>46069</v>
+      </c>
+      <c r="F1349" s="8">
+        <v>46117</v>
+      </c>
+      <c r="G1349" s="8">
+        <f t="shared" si="6"/>
+        <v>46130</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>1443</v>
       </c>
     </row>
   </sheetData>
